--- a/xlsx/种族主义_intext.xlsx
+++ b/xlsx/种族主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="570">
   <si>
     <t>种族主义</t>
   </si>
@@ -29,7 +29,7 @@
     <t>化学年表</t>
   </si>
   <si>
-    <t>政策_政策_美國_种族主义</t>
+    <t>政策_政策_美国_种族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%A7%8D</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3</t>
   </si>
   <si>
-    <t>遺傳</t>
+    <t>遗传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%80%A7</t>
@@ -95,15 +95,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>行為</t>
+    <t>行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%A8%AE</t>
   </si>
   <si>
-    <t>人種</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
   </si>
   <si>
@@ -119,13 +116,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%9E%8B%E6%85%8B</t>
   </si>
   <si>
-    <t>意識型態</t>
+    <t>意识型态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%9D%83%E5%88%A9</t>
@@ -137,13 +134,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%9E%8B%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>轉型正義</t>
+    <t>转型正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%86%E5%90%91%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>逆向歧視</t>
+    <t>逆向歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
@@ -155,13 +152,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AD%A7%E8%A6%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>性別歧視主義</t>
+    <t>性别歧视主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E8%8B%B1%E8%AA%9E%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>牛津英語辭典</t>
+    <t>牛津英语辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E9%87%8C%E4%BA%9A%E5%A7%86-%E9%9F%A6%E4%BC%AF%E6%96%AF%E7%89%B9</t>
@@ -191,103 +188,103 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E8%A6%8B</t>
   </si>
   <si>
-    <t>偏見</t>
+    <t>偏见</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>歧視</t>
+    <t>歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>納粹主義</t>
+    <t>纳粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>猶太人大屠殺</t>
+    <t>犹太人大屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
+    <t>种族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E9%99%A4%E4%B8%80%E5%88%87%E5%BD%A2%E5%BC%8F%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>排除一切形式種族歧視公約</t>
+    <t>排除一切形式种族歧视公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%9A%E8%89%B2</t>
   </si>
   <si>
-    <t>膚色</t>
+    <t>肤色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%8D%E8%B2%AB</t>
   </si>
   <si>
-    <t>籍貫</t>
+    <t>籍贯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%AC%8A</t>
   </si>
   <si>
-    <t>公民權</t>
+    <t>公民权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E4%BA%8B%E5%8B%99%E9%AB%98%E7%B4%9A%E5%B0%88%E5%93%A1%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國人權事務高級專員辦事處</t>
+    <t>联合国人权事务高级专员办事处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E5%81%8F%E8%A6%8B</t>
   </si>
   <si>
-    <t>種族偏見</t>
+    <t>种族偏见</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%98</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>外團體</t>
+    <t>外团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%BB%E6%9D%BF%E5%8D%B0%E8%B1%A1</t>
@@ -317,49 +314,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥大學</t>
+    <t>芝加哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>韓民族</t>
+    <t>韩民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E9%82%8A</t>
   </si>
   <si>
-    <t>延邊</t>
+    <t>延边</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>朝鮮族</t>
+    <t>朝鲜族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>種族隔離</t>
+    <t>种族隔离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9%E5%BE%B7%E5%9B%BD</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%B4%8D%E7%B2%B9</t>
   </si>
   <si>
-    <t>新納粹</t>
+    <t>新纳粹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA%E4%BC%98%E8%B6%8A%E4%B8%BB%E4%B9%89</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>古代中國</t>
+    <t>古代中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E7%89%A7%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>遊牧民族</t>
+    <t>游牧民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%9C%B0</t>
@@ -449,13 +446,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E7%99%BD%E8%89%B2%E7%B4%8D%E7%B2%B9%E5%8D%81%E5%AD%97</t>
   </si>
   <si>
-    <t>蒙古白色納粹十字</t>
+    <t>蒙古白色纳粹十字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%9C%8B%E7%9A%84%E6%B0%91%E6%97%8F%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>金國的民族歧視</t>
+    <t>金国的民族歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -521,13 +518,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E7%88%BE%E6%96%AF%C2%B7%E8%89%BE%E6%8B%94%E5%9C%96%C2%B7%E8%98%87%E4%BA%9E%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>路爾斯·艾拔圖·蘇亞雷斯</t>
+    <t>路尔斯·艾拔图·苏亚雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>種族歧視</t>
+    <t>种族歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%8E%8A</t>
   </si>
   <si>
-    <t>英鎊</t>
+    <t>英镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BA%9A%C2%B7%E5%9B%BE%E9%9B%B7</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91%E4%B8%AD%E5%A4%AE%E9%99%B8%E8%BB%8D%E8%B6%B3%E7%90%83%E4%BF%B1%E6%A8%82%E9%83%A8</t>
   </si>
   <si>
-    <t>莫斯科中央陸軍足球俱樂部</t>
+    <t>莫斯科中央陆军足球俱乐部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%81%E5%88%A4</t>
@@ -569,31 +566,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
+    <t>欧元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%A7%80%E7%9C%BE%E6%AF%94%E8%B3%BD</t>
   </si>
   <si>
-    <t>無觀眾比賽</t>
+    <t>无观众比赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9</t>
   </si>
   <si>
-    <t>納粹</t>
+    <t>纳粹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%A6%E5%92%8C%E7%B4%85%E9%91%BD</t>
   </si>
   <si>
-    <t>浦和紅鑽</t>
+    <t>浦和红钻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%A3%94%E6%97%A5%E6%9C%AC%E4%BA%BA</t>
   </si>
   <si>
-    <t>韓裔日本人</t>
+    <t>韩裔日本人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%BF%A0%E6%88%90</t>
@@ -611,49 +608,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%BF%AB%E8%89%87</t>
   </si>
   <si>
-    <t>洛杉磯快艇</t>
+    <t>洛杉矶快艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E6%96%AF%E7%89%B9%E6%9E%97</t>
   </si>
   <si>
-    <t>唐納德·斯特林</t>
+    <t>唐纳德·斯特林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>歐巴馬</t>
+    <t>欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E5%96%AC%E4%B8%B9</t>
   </si>
   <si>
-    <t>麥可·喬丹</t>
+    <t>麦可·乔丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E8%A1%93%E5%BC%B7%E6%A3%AE</t>
   </si>
   <si>
-    <t>魔術強森</t>
+    <t>魔术强森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%99%AE%E6%8B%89</t>
   </si>
   <si>
-    <t>歐普拉</t>
+    <t>欧普拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%8B%89%E5%88%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>維拉利爾</t>
+    <t>维拉利尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E9%98%BF%E7%88%BE%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>丹尼爾·阿爾維斯</t>
+    <t>丹尼尔·阿尔维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%95%89</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC88%E5%B1%86%E5%A5%A7%E6%96%AF%E5%8D%A1%E9%87%91%E5%83%8F%E7%8D%8E</t>
   </si>
   <si>
-    <t>第88屆奧斯卡金像獎</t>
+    <t>第88届奥斯卡金像奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%85%B0%E8%8E%AA%E5%B7%9E</t>
@@ -695,19 +692,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E8%B7%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>車路士</t>
+    <t>车路士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%8B%94%C2%B7%E5%A0%85%E5%B0%BC%E5%9C%B0</t>
   </si>
   <si>
-    <t>羅拔·堅尼地</t>
+    <t>罗拔·坚尼地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%94%E4%BD%9B%E5%B7%9E</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E6%97%8F</t>
   </si>
   <si>
-    <t>馬來族</t>
+    <t>马来族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E4%BE%9D%E5%B8%83%E6%8B%89%E6%AC%A3%C2%B7%E4%BE%9D%E6%96%AF%E8%BF%88</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>非裔美國人民權運動</t>
+    <t>非裔美国人民权运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-Apartheid_Movement</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E4%BA%BA%E5%8F%A3</t>
   </si>
   <si>
-    <t>敘利亞人口</t>
+    <t>叙利亚人口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E4%BA%BA%E5%8F%A3</t>
@@ -911,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%80%B3%E6%B3%A2%E7%89%B9%E8%A8%88%E9%87%8F%E8%A1%A8</t>
   </si>
   <si>
-    <t>奧耳波特計量表</t>
+    <t>奥耳波特计量表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E4%B9%89</t>
@@ -929,21 +926,18 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B1%A4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>標籤理論</t>
+    <t>标籤理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%B4%8D%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新納粹主義</t>
+    <t>新纳粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB</t>
   </si>
   <si>
-    <t>种族隔离</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E8%A7%81%E5%A8%81%E8%83%81</t>
   </si>
   <si>
@@ -953,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%A6%8D</t>
   </si>
   <si>
-    <t>黃禍</t>
+    <t>黄祸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AD%A7%E8%A7%86</t>
@@ -965,9 +959,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A7%E8%A7%86</t>
   </si>
   <si>
-    <t>歧视</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E9%BE%84%E6%AD%A7%E8%A7%86</t>
   </si>
   <si>
@@ -983,9 +974,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%86%E5%90%91%E6%AD%A7%E8%A7%86</t>
   </si>
   <si>
-    <t>逆向歧视</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E6%AD%A7%E8%A7%86</t>
   </si>
   <si>
@@ -1001,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民粹主義</t>
+    <t>民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%98%E6%AD%A7%E8%A7%86</t>
@@ -1019,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E6%80%A7%E6%88%80%E9%9C%B8%E6%AC%8A</t>
   </si>
   <si>
-    <t>異性戀霸權</t>
+    <t>异性恋霸权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%81%8B%E6%81%90%E6%83%A7%E7%97%87</t>
@@ -1031,13 +1019,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E6%80%A7%E6%88%80%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>雙性戀恐懼症</t>
+    <t>双性恋恐惧症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%90%8C%E6%80%A7%E6%88%80%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>女同性戀恐懼症</t>
+    <t>女同性恋恐惧症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AB%8C%E7%94%B7%E7%97%87</t>
@@ -1055,13 +1043,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E6%80%A7%E5%88%A5%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>跨性別恐懼症</t>
+    <t>跨性别恐惧症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%AD%E8%B7%A8%E5%A5%B3%E7%97%87</t>
   </si>
   <si>
-    <t>厭跨女症</t>
+    <t>厌跨女症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
@@ -1091,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%8F%AF</t>
   </si>
   <si>
-    <t>反華</t>
+    <t>反华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%8B%B1</t>
@@ -1157,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E9%A6%AC%E4%BE%86%E6%83%85%E7%B7%92</t>
   </si>
   <si>
-    <t>反馬來情緒</t>
+    <t>反马来情绪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E6%BB%A1</t>
@@ -1205,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%91%A9%E9%96%80%E6%95%99</t>
   </si>
   <si>
-    <t>反摩門教</t>
+    <t>反摩门教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%81%90%E6%83%A7%E7%97%87</t>
@@ -1271,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%87%E6%81%A8%E8%A8%80%E8%AB%96</t>
   </si>
   <si>
-    <t>仇恨言論</t>
+    <t>仇恨言论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E5%88%91</t>
@@ -1325,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%87%E6%81%A8%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>仇恨團體</t>
+    <t>仇恨团体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kahanism</t>
@@ -1343,9 +1331,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BA%B3%E7%B2%B9%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>新纳粹主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E5%85%9A_(%E5%8D%97%E9%9D%9E)</t>
   </si>
   <si>
@@ -1373,13 +1358,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E6%AC%8A</t>
   </si>
   <si>
-    <t>父權</t>
+    <t>父权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E5%A5%B4%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>廢奴主義</t>
+    <t>废奴主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Autism_rights_movement</t>
@@ -1397,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>民權運動</t>
+    <t>民权运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Inclusion_(disability_rights)</t>
@@ -1409,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>平等主義</t>
+    <t>平等主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -1421,37 +1406,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%B0LGBT%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>各地LGBT權利</t>
+    <t>各地LGBT权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>男性主義</t>
+    <t>男性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E6%AC%8A</t>
   </si>
   <si>
-    <t>男權</t>
+    <t>男权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%AC%8A</t>
   </si>
   <si>
-    <t>母權</t>
+    <t>母权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>婦女權利</t>
+    <t>妇女权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
   </si>
   <si>
-    <t>婦女投票權</t>
+    <t>妇女投票权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%89%E6%9D%83</t>
@@ -1469,7 +1454,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>南非種族隔離</t>
+    <t>南非种族隔离</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Internment</t>
@@ -1481,7 +1466,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>宗教隔離</t>
+    <t>宗教隔离</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Redlining</t>
@@ -1505,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%AC%8A</t>
   </si>
   <si>
-    <t>基本權</t>
+    <t>基本权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE</t>
@@ -1565,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%9C%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>本土主義</t>
+    <t>本土主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB%E6%B3%95</t>
@@ -1583,13 +1568,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A7%86%C2%B7%E5%85%8B%E5%8B%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>吉姆·克勞法</t>
+    <t>吉姆·克劳法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%80%AB%E5%A0%A1%E6%B3%95</t>
   </si>
   <si>
-    <t>紐倫堡法</t>
+    <t>纽伦堡法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%B8%BB%E5%9C%9F%E5%9C%B0</t>
@@ -1613,7 +1598,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%99%A4%E5%B0%8D%E5%A9%A6%E5%A5%B3%E4%B8%80%E5%88%87%E5%BD%A2%E5%BC%8F%E6%AD%A7%E8%A6%96%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>消除對婦女一切形式歧視公約</t>
+    <t>消除对妇女一切形式歧视公约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Discrimination_(Employment_and_Occupation)_Convention,_1958</t>
@@ -1649,7 +1634,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%84%AA%E8%B6%8A%E6%84%9F</t>
   </si>
   <si>
-    <t>民族優越感</t>
+    <t>民族优越感</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gynocentrism</t>
@@ -1679,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E7%94%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>優生學</t>
+    <t>优生学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E6%96%87%E5%8C%96%E6%94%BF%E7%AD%96</t>
@@ -1709,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E5%AE%B9</t>
   </si>
   <si>
-    <t>寬容</t>
+    <t>宽容</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Missing_white_woman_syndrome</t>
@@ -1721,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1739,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2472,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
         <v>14</v>
@@ -2513,10 +2498,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>25</v>
@@ -2542,10 +2527,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2571,10 +2556,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2600,10 +2585,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -2629,10 +2614,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2658,10 +2643,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2687,10 +2672,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -2716,10 +2701,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2745,10 +2730,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2774,10 +2759,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2803,10 +2788,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2832,10 +2817,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2861,10 +2846,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>7</v>
@@ -2890,10 +2875,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
@@ -2919,10 +2904,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -2948,10 +2933,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>45</v>
@@ -2977,10 +2962,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -3006,10 +2991,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -3035,10 +3020,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3064,10 +3049,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3093,10 +3078,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -3122,10 +3107,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>84</v>
@@ -3151,10 +3136,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>6</v>
@@ -3180,10 +3165,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3209,10 +3194,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>4</v>
@@ -3238,10 +3223,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3267,10 +3252,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -3296,10 +3281,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3325,10 +3310,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3354,10 +3339,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>5</v>
@@ -3383,10 +3368,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -3412,10 +3397,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3441,10 +3426,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3470,10 +3455,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3499,10 +3484,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3528,10 +3513,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>13</v>
@@ -3557,10 +3542,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3586,10 +3571,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3615,10 +3600,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3644,10 +3629,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3673,10 +3658,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3702,10 +3687,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3731,10 +3716,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3760,10 +3745,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
@@ -3789,10 +3774,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3818,10 +3803,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -3847,10 +3832,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3876,10 +3861,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3905,10 +3890,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3934,10 +3919,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3963,10 +3948,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3992,10 +3977,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4021,10 +4006,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4050,10 +4035,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4079,10 +4064,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4108,10 +4093,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4137,10 +4122,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4166,10 +4151,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4195,10 +4180,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4224,10 +4209,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4253,10 +4238,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4282,10 +4267,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4311,10 +4296,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4340,10 +4325,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4369,10 +4354,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4398,10 +4383,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -4427,10 +4412,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4456,10 +4441,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4485,10 +4470,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4514,10 +4499,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4543,10 +4528,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>25</v>
@@ -4572,10 +4557,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>23</v>
@@ -4601,10 +4586,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4630,10 +4615,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4659,10 +4644,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4688,10 +4673,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4717,10 +4702,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4746,10 +4731,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4775,10 +4760,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4804,10 +4789,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>6</v>
@@ -4833,10 +4818,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4862,10 +4847,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4891,10 +4876,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4920,10 +4905,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4949,10 +4934,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4978,10 +4963,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5007,10 +4992,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5036,10 +5021,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5065,10 +5050,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5094,10 +5079,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5123,10 +5108,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5152,10 +5137,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5181,10 +5166,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>5</v>
@@ -5210,10 +5195,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5239,10 +5224,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5268,10 +5253,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5297,10 +5282,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5326,10 +5311,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5355,10 +5340,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>5</v>
@@ -5384,10 +5369,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -5413,10 +5398,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5442,10 +5427,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5471,10 +5456,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5500,10 +5485,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5529,10 +5514,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5558,10 +5543,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5587,10 +5572,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5616,10 +5601,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5645,10 +5630,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5674,10 +5659,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5703,10 +5688,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5732,10 +5717,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5761,10 +5746,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5790,10 +5775,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5819,10 +5804,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -5848,10 +5833,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5877,10 +5862,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -5906,10 +5891,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5935,10 +5920,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5964,10 +5949,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5993,10 +5978,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6022,10 +6007,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>5</v>
@@ -6051,10 +6036,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6080,10 +6065,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>10</v>
@@ -6109,10 +6094,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -6138,10 +6123,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6167,10 +6152,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6196,10 +6181,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6225,10 +6210,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6254,10 +6239,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6283,10 +6268,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6312,10 +6297,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6341,10 +6326,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6370,10 +6355,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6399,10 +6384,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6428,10 +6413,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6457,10 +6442,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6486,10 +6471,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6515,10 +6500,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6544,10 +6529,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>119</v>
       </c>
       <c r="G154" t="n">
         <v>6</v>
@@ -6573,10 +6558,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6602,10 +6587,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6631,10 +6616,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>6</v>
@@ -6660,10 +6645,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>59</v>
       </c>
       <c r="G158" t="n">
         <v>40</v>
@@ -6689,10 +6674,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6718,10 +6703,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6747,10 +6732,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>41</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6776,10 +6761,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6805,10 +6790,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6834,10 +6819,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6863,10 +6848,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6892,10 +6877,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6921,10 +6906,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6950,10 +6935,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6979,10 +6964,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7008,10 +6993,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7037,10 +7022,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7066,10 +7051,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7095,10 +7080,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7124,10 +7109,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7153,10 +7138,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>9</v>
@@ -7182,10 +7167,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7211,10 +7196,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7240,10 +7225,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7269,10 +7254,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>6</v>
@@ -7298,10 +7283,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F180" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7327,10 +7312,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7356,10 +7341,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7385,10 +7370,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -7414,10 +7399,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F184" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7443,10 +7428,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7472,10 +7457,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7501,10 +7486,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7530,10 +7515,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F188" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7559,10 +7544,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F189" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7588,10 +7573,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>6</v>
@@ -7617,10 +7602,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F191" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7646,10 +7631,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F192" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7675,10 +7660,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7704,10 +7689,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7733,10 +7718,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F195" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7762,10 +7747,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F196" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7791,10 +7776,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F197" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7820,10 +7805,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7849,10 +7834,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7878,10 +7863,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7907,10 +7892,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7936,10 +7921,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7965,10 +7950,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7994,10 +7979,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8023,10 +8008,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8052,10 +8037,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8081,10 +8066,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8110,10 +8095,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8139,10 +8124,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8168,10 +8153,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8197,10 +8182,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8226,10 +8211,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8255,10 +8240,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8284,10 +8269,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8313,10 +8298,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8342,10 +8327,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8371,10 +8356,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8400,10 +8385,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8429,10 +8414,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8458,10 +8443,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8487,10 +8472,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8516,10 +8501,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>305</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8545,10 +8530,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F223" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8574,10 +8559,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F224" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8603,10 +8588,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F225" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8632,10 +8617,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F226" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8661,10 +8646,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F227" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8690,10 +8675,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F228" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8719,10 +8704,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F229" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8748,10 +8733,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F230" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8777,10 +8762,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F231" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8806,10 +8791,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F232" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8835,10 +8820,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F233" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8864,10 +8849,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F234" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8893,10 +8878,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F235" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8922,10 +8907,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F236" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8951,10 +8936,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F237" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8980,10 +8965,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F238" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9009,10 +8994,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F239" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9038,10 +9023,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F240" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G240" t="n">
         <v>5</v>
@@ -9067,10 +9052,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F241" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9096,10 +9081,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F242" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9125,10 +9110,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F243" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9154,10 +9139,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F244" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9183,10 +9168,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F245" t="s">
-        <v>308</v>
+        <v>119</v>
       </c>
       <c r="G245" t="n">
         <v>55</v>
@@ -9212,10 +9197,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F246" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G246" t="n">
         <v>8</v>
@@ -9241,10 +9226,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F247" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9270,10 +9255,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F248" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9299,10 +9284,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F249" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -9328,10 +9313,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F250" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9357,10 +9342,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F251" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9386,10 +9371,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F252" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9415,10 +9400,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F253" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9444,10 +9429,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F254" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9473,10 +9458,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F255" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9502,10 +9487,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F256" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -9531,10 +9516,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F257" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9560,10 +9545,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F258" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9589,10 +9574,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F259" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9618,10 +9603,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F260" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9647,10 +9632,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F261" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9676,10 +9661,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F262" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -9705,10 +9690,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F263" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9734,10 +9719,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F264" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9763,10 +9748,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F265" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9792,10 +9777,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F266" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9821,10 +9806,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F267" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9850,10 +9835,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F268" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9879,10 +9864,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F269" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9908,10 +9893,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F270" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9937,10 +9922,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F271" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9966,10 +9951,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F272" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -9995,10 +9980,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F273" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10024,10 +10009,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F274" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10053,10 +10038,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F275" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10082,10 +10067,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F276" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10111,10 +10096,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F277" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10140,10 +10125,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F278" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10169,10 +10154,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>56</v>
+      </c>
+      <c r="F279" t="s">
         <v>57</v>
-      </c>
-      <c r="F279" t="s">
-        <v>58</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10198,10 +10183,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F280" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10227,10 +10212,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F281" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10256,10 +10241,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F282" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -10285,10 +10270,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F283" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10314,10 +10299,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>56</v>
+      </c>
+      <c r="F284" t="s">
         <v>57</v>
-      </c>
-      <c r="F284" t="s">
-        <v>58</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10343,10 +10328,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10372,10 +10357,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10401,10 +10386,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -10430,10 +10415,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G288" t="n">
         <v>3</v>
@@ -10459,10 +10444,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10488,10 +10473,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10517,10 +10502,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
